--- a/output_additional_column/1996.xlsx
+++ b/output_additional_column/1996.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44703.7671060826</v>
+        <v>44703.79032543473</v>
       </c>
     </row>
     <row r="3">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>44703.7671060826</v>
+        <v>44703.79032543473</v>
       </c>
     </row>
   </sheetData>
